--- a/public/ss.xlsx
+++ b/public/ss.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>User ID</t>
   </si>
@@ -26,13 +26,7 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>clientk</t>
-  </si>
-  <si>
-    <t>email@email.tn</t>
+    <t>Adresse</t>
   </si>
   <si>
     <t>Rhaiem</t>
@@ -42,6 +36,9 @@
   </si>
   <si>
     <t>rania.rhaiem@esprit.tn</t>
+  </si>
+  <si>
+    <t>47 rue de la méditerrané</t>
   </si>
   <si>
     <t>admin</t>
@@ -383,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +388,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,46 +402,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
